--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15261FE-C628-44AB-A701-12FE0468481E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E63CBE-5229-4471-AC69-3FC889E83213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{547187DB-735A-4EF2-9890-E52A86CFDE7B}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{80D701BC-D751-45DD-88F2-6BC7749565FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB2FC08-A230-4F68-96F3-611FE059943B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84C3D71-C822-43AB-8009-6BCC4AEE193A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E63CBE-5229-4471-AC69-3FC889E83213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9352B2A-490F-4540-A629-4D5506CD4570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{80D701BC-D751-45DD-88F2-6BC7749565FB}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{A83B2BB5-D883-4D8F-A495-D346517F115F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84C3D71-C822-43AB-8009-6BCC4AEE193A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99205B58-7474-491B-8B8E-8338B34CCF75}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>7.5044110866313707</v>
+        <v>26.857219053304163</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9352B2A-490F-4540-A629-4D5506CD4570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2218CF-582B-4AF3-82E4-CF9E15950EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{A83B2BB5-D883-4D8F-A495-D346517F115F}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{FD5A3EEF-A496-402B-84DE-8FB17F401935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99205B58-7474-491B-8B8E-8338B34CCF75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE0C5C5-89FD-45A2-A9EB-B6C5D6EAE20F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>26.857219053304163</v>
+        <v>5.887413768342654</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2218CF-582B-4AF3-82E4-CF9E15950EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD8A722-5878-4524-88F2-61085F5FBA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{FD5A3EEF-A496-402B-84DE-8FB17F401935}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{A70BB42D-211E-46F9-BB5A-7A4FE98CF7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE0C5C5-89FD-45A2-A9EB-B6C5D6EAE20F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E513F63B-17E0-4DA3-AC3C-D245B2FFDF54}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
